--- a/web/material/template/indent_template.xlsx
+++ b/web/material/template/indent_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Documents/Itellij/Selling/web/material/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,12 +130,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,110 +414,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -527,19 +527,21 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -548,43 +550,19 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
